--- a/MangeVegas/Tabelas/Pasta1.xlsx
+++ b/MangeVegas/Tabelas/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsadm\Desktop\WEB\MangeVegas\Tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BA02BF-FDCA-44EB-AFCD-A74822A67109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD486EB-DFDB-4984-AE2F-3654F24D2805}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{ADD0A96C-4353-4BE8-95C6-24553081CE98}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
-  <si>
-    <t>User</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -120,9 +117,6 @@
     <t>Decimal</t>
   </si>
   <si>
-    <t>Balance</t>
-  </si>
-  <si>
     <t>Transactions</t>
   </si>
   <si>
@@ -132,18 +126,6 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>token_origem_id</t>
-  </si>
-  <si>
-    <t>quantidade_origem</t>
-  </si>
-  <si>
-    <t>token_destino_id</t>
-  </si>
-  <si>
-    <t>quantidade_destino</t>
-  </si>
-  <si>
     <t>Moves</t>
   </si>
   <si>
@@ -151,6 +133,30 @@
   </si>
   <si>
     <t>Boolean</t>
+  </si>
+  <si>
+    <t>CustomUser</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>account_FK</t>
+  </si>
+  <si>
+    <t>transaction_date</t>
+  </si>
+  <si>
+    <t>token_source_FK</t>
+  </si>
+  <si>
+    <t>token_target_FK</t>
+  </si>
+  <si>
+    <t>token_source_amount</t>
+  </si>
+  <si>
+    <t>conversion_rate</t>
   </si>
 </sst>
 </file>
@@ -255,14 +261,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,7 +586,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,289 +598,285 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="I2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="5"/>
+      <c r="A2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="I2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>41</v>
+      <c r="I6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" s="1"/>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="E17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="5"/>
+      <c r="A17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="E17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>27</v>
+      <c r="E23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
